--- a/medicine/Psychotrope/Brouwerij_Van_Honsebrouck/Brouwerij_Van_Honsebrouck.xlsx
+++ b/medicine/Psychotrope/Brouwerij_Van_Honsebrouck/Brouwerij_Van_Honsebrouck.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Brouwerij Van Honsebrouck ou Brasserie Van Honsebrouck est une brasserie située à Ingelmunster en Belgique. On y brasse principalement les marques de bières : Kasteel, St-Louis, Brigand et Bacchus.
@@ -512,13 +524,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille Van Honsebrouck brasse depuis le XIXe siècle[1]. Amandus Van Honsebrouck fonde sa brasserie à Werken. Ensuite son fils Émile lui succède et fonde en 1900 la brasserie Sint-Jozef à Ingelmunster[1]. Paul et Ernest, leurs fils, poursuivent l'activité familiale. En 1986, la famille du brasseur a fait l’acquisition du château situé dans la commune mentionnée[2],[3]. La bière Kasteel (en néerlandais : château) est créée à cette occasion. En 2001 un incendie ravagea le musée-brasserie[2].
-La famille en profite pour rénover son infrastructure et moderniser son brassage. On peut aujourd'hui visiter le château et la brasserie qui se trouve à proximité du château dans la rue Oostrozebekestraat. Depuis 2009, la brasserie est dirigée par Xavier Van Honsebrouck qui est le septième brasseur de la famille et le quatrième à la diriger[4]. Il décide de brasser la Cuvée du Château, une Kasteel brune de 10 ans d'âge.
-La brasserie a fait partie de l'association brassicole Belgian Family Brewers jusqu'en 2016[5].
-En 2018, Vanhonsebrouck a brassé 133 000 hectolitres de bière, ce qui représente une augmentation de 13% des ventes par rapport à l’année précédente, 2017[6].
-La Brasserie Van Honsebrouck a participé au Belgian Beer Week du 20 mai au 26 mai 2024 qui s'est déroulé au Canada[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille Van Honsebrouck brasse depuis le XIXe siècle. Amandus Van Honsebrouck fonde sa brasserie à Werken. Ensuite son fils Émile lui succède et fonde en 1900 la brasserie Sint-Jozef à Ingelmunster. Paul et Ernest, leurs fils, poursuivent l'activité familiale. En 1986, la famille du brasseur a fait l’acquisition du château situé dans la commune mentionnée,. La bière Kasteel (en néerlandais : château) est créée à cette occasion. En 2001 un incendie ravagea le musée-brasserie.
+La famille en profite pour rénover son infrastructure et moderniser son brassage. On peut aujourd'hui visiter le château et la brasserie qui se trouve à proximité du château dans la rue Oostrozebekestraat. Depuis 2009, la brasserie est dirigée par Xavier Van Honsebrouck qui est le septième brasseur de la famille et le quatrième à la diriger. Il décide de brasser la Cuvée du Château, une Kasteel brune de 10 ans d'âge.
+La brasserie a fait partie de l'association brassicole Belgian Family Brewers jusqu'en 2016.
+En 2018, Vanhonsebrouck a brassé 133 000 hectolitres de bière, ce qui représente une augmentation de 13% des ventes par rapport à l’année précédente, 2017.
+La Brasserie Van Honsebrouck a participé au Belgian Beer Week du 20 mai au 26 mai 2024 qui s'est déroulé au Canada.
 </t>
         </is>
       </c>
@@ -549,32 +563,245 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kasteel
-Cette bière est déclinée en 6 types :
-Kasteel Hoppy, une bière blonde titrant 6,5 % en volume d'alcool[8];
+          <t>Kasteel</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cette bière est déclinée en 6 types :
+Kasteel Hoppy, une bière blonde titrant 6,5 % en volume d'alcool;
 Kasteel Donker, une bière brune titrant 11 % en volume d'alcool ;
-Kasteel Rouge, est un mélange de Kasteel Donker et de liqueur de cerises titrant 8 % en volume d'alcool[9];
+Kasteel Rouge, est un mélange de Kasteel Donker et de liqueur de cerises titrant 8 % en volume d'alcool;
 Kasteel Tripel, une bière blonde triple titrant 11 % en volume d'alcool ;
 Kasteel Blond, une bière blonde titrant 7 % en volume d'alcool ;
-Cuvée du Château Kasteel, une Kasteel Donker vieillie pendant 10 ans dans les caves du château et titrant 11 % en volume d'alcool.
-St-Louis
-Cette bière à fermentation spontanée est déclinée en 6 produits à base de lambics :
+Cuvée du Château Kasteel, une Kasteel Donker vieillie pendant 10 ans dans les caves du château et titrant 11 % en volume d'alcool.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Brouwerij_Van_Honsebrouck</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brouwerij_Van_Honsebrouck</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Bières</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>St-Louis</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cette bière à fermentation spontanée est déclinée en 6 produits à base de lambics :
 St-Louis Fond Tradition : produit artisanal très typé (4,5 % vol. alcool) ;
 St-Louis Kriek Lambic : mélange de lambic et pulpe de fruits (griottes) (4 % vol. alcool) ;
 St-Louis Premium Gueuze : gueuze jeune (4,5 % vol. alcool) ;
 St-Louis Premium Kriek : gueuze et jus de cerise (3,2 % vol. alcool) ;
 St-Louis Premium Pêche : gueuze et jus de pêche (2,6 % vol. alcool) ;
-St-Louis Premium Framboise : gueuze et jus de framboises (2,8 % vol. alcool).
-Brigand
-La Brigand classique (9 % vol. alcool) est une blonde. On trouve parfois la Brigand IPA (India Pale ale) qui est une ambrée.
-Bacchus
-La Bacchus Vlaams Oud Bruin est une bière rouge brun de type vieille brune flamande titrant 4,5 % en volume d'alcool.
-Passchendaele
-La Passchendaele est bière blonde de haute fermentation avec une faible teneur en alcool (5,2 % vol.).
-Trignac XII
-La Trignac XII (12 % vol.) est une bière blonde triple mûrie en fûts de Cognac et produite en série limitée[8].
-Filou
-La Filou (8.5 % vol.) est une bière blonde brassée avec des houblons aromatiques belges et tchèques[10].
+St-Louis Premium Framboise : gueuze et jus de framboises (2,8 % vol. alcool).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brouwerij_Van_Honsebrouck</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brouwerij_Van_Honsebrouck</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Bières</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Brigand</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Brigand classique (9 % vol. alcool) est une blonde. On trouve parfois la Brigand IPA (India Pale ale) qui est une ambrée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Brouwerij_Van_Honsebrouck</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brouwerij_Van_Honsebrouck</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Bières</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bacchus</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Bacchus Vlaams Oud Bruin est une bière rouge brun de type vieille brune flamande titrant 4,5 % en volume d'alcool.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Brouwerij_Van_Honsebrouck</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brouwerij_Van_Honsebrouck</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Bières</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Passchendaele</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Passchendaele est bière blonde de haute fermentation avec une faible teneur en alcool (5,2 % vol.).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Brouwerij_Van_Honsebrouck</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brouwerij_Van_Honsebrouck</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Bières</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Trignac XII</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Trignac XII (12 % vol.) est une bière blonde triple mûrie en fûts de Cognac et produite en série limitée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Brouwerij_Van_Honsebrouck</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brouwerij_Van_Honsebrouck</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Bières</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Filou</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Filou (8.5 % vol.) est une bière blonde brassée avec des houblons aromatiques belges et tchèques.
 </t>
         </is>
       </c>
